--- a/Dataset/Folds/Fold_5/Excel/84.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/84.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="55">
   <si>
     <t>Doi</t>
   </si>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>[Annane%Djillali%coreGivesNoEmail%0,    Aubron%C\u00e9cile%coreGivesNoEmail%0,    Badi\u00e9%Julio%coreGivesNoEmail%0,    Bourgoin%H\u00e9l\u00e8ne%coreGivesNoEmail%0,    Caille-F\u00e9n\u00e9rol%Caroline%coreGivesNoEmail%0,    Coffre%Carine%coreGivesNoEmail%0,    Dequin%Pierre-Fran\u00e7ois%coreGivesNoEmail%0,    Ehrmann%Stephan%coreGivesNoEmail%0,    Fran\u00e7ois%Bruno%coreGivesNoEmail%0,    Giraudeau%Bruno%coreGivesNoEmail%0,    Guillon%Antoine%coreGivesNoEmail%0,    Heming%Nicholas%coreGivesNoEmail%0,    Jouan%Youenn%coreGivesNoEmail%0,    Le%Gouge Am\u00e9lie%coreGivesNoEmail%0,    Leclerc%Marie%coreGivesNoEmail%0,    Lengell\u00e9%C\u00e9line%coreGivesNoEmail%0,    Meziani%Ferhat%coreGivesNoEmail%0,    Plantef\u00e8ve%Ga\u00ebtan%coreGivesNoEmail%0,    Ricard%Jean-Damien%coreGivesNoEmail%0,    Tavernier%Elsa%coreGivesNoEmail%0,    Voiriot%Guillaume%coreGivesNoEmail%0,    Zohar%Sarah%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0,      Maria Eduarda Leão%Farias%NULL%1,      Fernando Fonseca Almeida%Val%NULL%1,      Vanderson Souza%Sampaio%NULL%1,      Marcia Almeida Araújo%Alexandre%NULL%1,      Gisely Cardoso%Melo%NULL%1,      Izabella Picinin%Safe%NULL%1,      Mayla Gabriela Silva%Borba%NULL%1,      Rebeca Linhares%Abreu-Netto%NULL%1,      Alex Bezerra Silva%Maciel%NULL%1,      João Ricardo Silva%Neto%NULL%1,      Lucas Barbosa%Oliveira%NULL%1,      Erick Frota Gomes%Figueiredo%NULL%1,      Kelry Mazurega Oliveira%Dinelly%NULL%1,      Maria Gabriela de Almeida%Rodrigues%NULL%1,      Marcelo%Brito%NULL%1,      Maria Paula Gomes%Mourão%NULL%1,      Guilherme Augusto%Pivoto João%NULL%1,      Ludhmila Abrahão%Hajjar%NULL%1,      Quique%Bassat%NULL%1,      Gustavo Adolfo Sierra%Romero%NULL%1,      Felipe Gomes%Naveca%NULL%1,      Heline Lira%Vasconcelos%NULL%1,      Michel de Araújo%Tavares%NULL%1,      José Diego%Brito-Sousa%NULL%1,      Fabio Trindade Maranhão%Costa%NULL%1,      Maurício Lacerda%Nogueira%NULL%1,      Djane%Baía-da-Silva%NULL%1,      Mariana Simão%Xavier%NULL%1,      Wuelton Marcelo%Monteiro%NULL%1,      Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,      NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0,       Maria Eduarda Leão%Farias%NULL%1,       Fernando Fonseca Almeida%Val%NULL%1,       Vanderson Souza%Sampaio%NULL%1,       Marcia Almeida Araújo%Alexandre%NULL%1,       Gisely Cardoso%Melo%NULL%1,       Izabella Picinin%Safe%NULL%1,       Mayla Gabriela Silva%Borba%NULL%1,       Rebeca Linhares%Abreu-Netto%NULL%1,       Alex Bezerra Silva%Maciel%NULL%1,       João Ricardo Silva%Neto%NULL%1,       Lucas Barbosa%Oliveira%NULL%1,       Erick Frota Gomes%Figueiredo%NULL%1,       Kelry Mazurega Oliveira%Dinelly%NULL%1,       Maria Gabriela de Almeida%Rodrigues%NULL%1,       Marcelo%Brito%NULL%1,       Maria Paula Gomes%Mourão%NULL%1,       Guilherme Augusto%Pivoto João%NULL%1,       Ludhmila Abrahão%Hajjar%NULL%1,       Quique%Bassat%NULL%1,       Gustavo Adolfo Sierra%Romero%NULL%1,       Felipe Gomes%Naveca%NULL%1,       Heline Lira%Vasconcelos%NULL%1,       Michel de Araújo%Tavares%NULL%1,       José Diego%Brito-Sousa%NULL%1,       Fabio Trindade Maranhão%Costa%NULL%1,       Maurício Lacerda%Nogueira%NULL%1,       Djane%Baía-da-Silva%NULL%1,       Mariana Simão%Xavier%NULL%1,       Wuelton Marcelo%Monteiro%NULL%1,       Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,       NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0, Maria Eduarda Leão%Farias%NULL%0, Fernando Fonseca Almeida%Val%NULL%0, Vanderson Souza%Sampaio%NULL%0, Marcia Almeida Araújo%Alexandre%NULL%0, Gisely Cardoso%Melo%NULL%0, Izabella Picinin%Safe%NULL%0, Mayla Gabriela Silva%Borba%NULL%0, Rebeca Linhares%Abreu-Netto%NULL%0, Alex Bezerra Silva%Maciel%NULL%0, João Ricardo Silva%Neto%NULL%0, Lucas Barbosa%Oliveira%NULL%0, Erick Frota Gomes%Figueiredo%NULL%0, Kelry Mazurega Oliveira%Dinelly%NULL%0, Maria Gabriela de Almeida%Rodrigues%NULL%0, Marcelo%Brito%NULL%0, Maria Paula Gomes%Mourão%NULL%0, Guilherme Augusto%Pivoto João%NULL%0, Ludhmila Abrahão%Hajjar%NULL%0, Quique%Bassat%NULL%0, Gustavo Adolfo Sierra%Romero%NULL%0, Felipe Gomes%Naveca%NULL%0, Heline Lira%Vasconcelos%NULL%0, Michel de Araújo%Tavares%NULL%0, José Diego%Brito-Sousa%NULL%0, Fabio Trindade Maranhão%Costa%NULL%0, Maurício Lacerda%Nogueira%NULL%0, Djane%Baía-da-Silva%NULL%0, Mariana Simão%Xavier%NULL%0, Wuelton Marcelo%Monteiro%NULL%0, Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
   </si>
 </sst>
 </file>
@@ -571,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -586,7 +601,7 @@
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -618,7 +633,7 @@
         <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -629,19 +644,19 @@
         <v>44076.0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -661,19 +676,19 @@
         <v>44076.0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -693,19 +708,19 @@
         <v>44076.0</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
